--- a/templates/saito_irai.xlsx
+++ b/templates/saito_irai.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7342\Documents\ff_2\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A431C2B9-8F1F-4F32-AE22-B442FC59A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4735DA-29F4-481C-B175-8DC1C9510FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="260" windowWidth="19060" windowHeight="8410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="関東運輸様集荷依頼書原本" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">関東運輸様集荷依頼書原本!$A$1:$J$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">関東運輸様集荷依頼書原本!$A$1:$I$27</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -48,13 +48,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>品番</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -203,15 +196,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>関東運輸株式会社担当渡辺　様　FAX03-6206-8221</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -306,12 +302,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="35"/>
       <name val="ＭＳ Ｐ明朝"/>
@@ -328,6 +318,19 @@
       <b/>
       <u/>
       <sz val="48"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
     </font>
@@ -663,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,9 +715,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -733,10 +733,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,65 +760,74 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2786,32 +2795,31 @@
   <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="69.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="76.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
-    <col min="14" max="14" width="9.375" customWidth="1"/>
-    <col min="16" max="16" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="56.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="69.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="76.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2820,10 +2828,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2832,344 +2839,325 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="22" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="25" t="s">
-        <v>11</v>
+      <c r="F4" s="26"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="18"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="19"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:13" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="48" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="25"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>10</v>
+      <c r="G9" s="29" t="s">
+        <v>13</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="47"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="36"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
+    <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="47"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="36"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="35"/>
+      <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="47"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="36"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="35"/>
+      <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="50"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
+    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="47"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="36"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="35"/>
+      <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="47"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="36"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
+    <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="35"/>
+      <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
+    <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="47"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="36"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="35"/>
+      <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+    <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="47"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="35"/>
+      <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
+    <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="47"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="36"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="35"/>
+      <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+    <row r="19" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="36"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="35"/>
+      <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+    <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="47"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="35"/>
+      <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="36"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="35"/>
+      <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
+    <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="47"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="36"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="35"/>
+      <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
+    <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="47"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="36"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="35"/>
+      <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
+    <row r="24" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
     </row>
-    <row r="25" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="s">
-        <v>6</v>
+    <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18" t="s">
+        <v>5</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="20"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+    <row r="26" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3179,21 +3167,22 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.98425196850393704" footer="0.39370078740157483"/>

--- a/templates/saito_irai.xlsx
+++ b/templates/saito_irai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7342\Documents\ff_2\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kintai\ff\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4735DA-29F4-481C-B175-8DC1C9510FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5123E-4DCB-4230-9EA8-0738B21D65EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="260" windowWidth="19060" windowHeight="8410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="関東運輸様集荷依頼書原本" sheetId="6" r:id="rId1"/>
@@ -666,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,31 +688,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -721,31 +721,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,9 +760,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,7 +769,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,16 +784,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,8 +811,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2472,9 +2460,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2512,9 +2500,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2547,26 +2535,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2599,26 +2570,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2797,8 +2751,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2828,7 +2782,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="19"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2839,7 +2793,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="19"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -2848,13 +2802,13 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2866,10 +2820,10 @@
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="9"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2889,273 +2843,273 @@
         <v>7</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="7"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="11"/>
       <c r="I6" s="18"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="10"/>
       <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="19"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="3"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="3"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="25"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="34"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="34"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="34"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="34"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="34"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="34"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="34"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="34"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="34"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="47"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="34"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="34"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="19"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
